--- a/Excel/BattlefieldMapConfig.xlsx
+++ b/Excel/BattlefieldMapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="16695" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="BattlefieldMap" sheetId="1" r:id="rId1"/>
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+  <si>
+    <t>#</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>测试说明</t>
+  </si>
+  <si>
     <t>第1行</t>
   </si>
   <si>
@@ -40,6 +46,18 @@
     <t>第7行</t>
   </si>
   <si>
+    <t>第8行</t>
+  </si>
+  <si>
+    <t>第9行</t>
+  </si>
+  <si>
+    <t>第10行</t>
+  </si>
+  <si>
+    <t>第11行</t>
+  </si>
+  <si>
     <t>row1</t>
   </si>
   <si>
@@ -61,10 +79,55 @@
     <t>row7</t>
   </si>
   <si>
+    <t>row8</t>
+  </si>
+  <si>
+    <t>row9</t>
+  </si>
+  <si>
+    <t>row10</t>
+  </si>
+  <si>
+    <t>row11</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>Solo地图</t>
+  </si>
+  <si>
+    <t>0,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>3,0,0,0,0,0,4</t>
+  </si>
+  <si>
+    <t>2,1,1,1,1,1,2</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,2</t>
+  </si>
+  <si>
+    <t>Pvp地图</t>
+  </si>
+  <si>
+    <t>Team地图</t>
+  </si>
+  <si>
+    <t>3,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,1,1,1,1,1,0</t>
+  </si>
+  <si>
+    <t>2,0,0,0,0,0,0</t>
+  </si>
+  <si>
+    <t>2,2,2,2,2,2,4</t>
   </si>
 </sst>
 </file>
@@ -72,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -99,13 +162,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -114,24 +170,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,14 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -158,9 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,13 +230,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,21 +269,30 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -237,14 +300,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,31 +328,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,55 +496,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,91 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,32 +533,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,6 +570,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -543,6 +591,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -559,49 +622,52 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,109 +676,107 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1062,127 +1126,269 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J6"/>
+  <dimension ref="C2:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="6.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1" customWidth="1"/>
+    <col min="7" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10">
-      <c r="C3" s="3" t="s">
+    <row r="2" spans="4:4">
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+    </row>
+    <row r="3" spans="3:15">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="J3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="3:10">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="3" t="s">
+    <row r="4" spans="3:15">
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="3:10">
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>16</v>
+    <row r="5" spans="3:15">
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:10">
+    <row r="6" s="1" customFormat="1" spans="3:15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15">
+      <c r="C7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BattlefieldMapConfig.xlsx
+++ b/Excel/BattlefieldMapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16695" windowHeight="12390"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="BattlefieldMap" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>#</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>第11行</t>
+  </si>
+  <si>
+    <t>0：空地 1：友军格子 2：敌军格子 3：出生点 4：结束点</t>
   </si>
   <si>
     <t>row1</t>
@@ -135,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -184,19 +187,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -206,30 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,11 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,7 +295,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,30 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,60 +331,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -394,121 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,6 +522,56 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -537,61 +590,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,145 +628,145 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1132,7 @@
   <dimension ref="C2:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1137,7 +1140,7 @@
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1" customWidth="1"/>
     <col min="7" max="15" width="9.75" style="1" customWidth="1"/>
@@ -1194,78 +1197,80 @@
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="3:15">
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:15">
@@ -1273,40 +1278,40 @@
         <v>1001</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N6" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="3:15">
@@ -1314,40 +1319,40 @@
         <v>1002</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="3:15">
@@ -1355,40 +1360,40 @@
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/BattlefieldMapConfig.xlsx
+++ b/Excel/BattlefieldMapConfig.xlsx
@@ -138,10 +138,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -172,6 +172,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -180,22 +210,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,75 +272,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,6 +286,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -303,7 +303,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,12 +331,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -349,79 +475,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,84 +512,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,41 +541,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -586,15 +551,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +573,50 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -628,10 +628,10 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +640,133 @@
     <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,13 +1129,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:O8"/>
+  <dimension ref="C2:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
@@ -1273,7 +1273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:15">
+    <row r="6" s="1" customFormat="1" spans="3:17">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1313,8 +1313,9 @@
       <c r="O6" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="3:15">
+      <c r="Q6"/>
+    </row>
+    <row r="7" spans="3:17">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1354,8 +1355,9 @@
       <c r="O7" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="3:15">
+      <c r="Q7"/>
+    </row>
+    <row r="8" spans="3:17">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1395,6 +1397,37 @@
       <c r="O8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="Q8"/>
+    </row>
+    <row r="9" spans="17:17">
+      <c r="Q9"/>
+    </row>
+    <row r="10" spans="17:17">
+      <c r="Q10"/>
+    </row>
+    <row r="11" spans="17:17">
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="17:17">
+      <c r="Q12"/>
+    </row>
+    <row r="13" spans="17:17">
+      <c r="Q13"/>
+    </row>
+    <row r="14" spans="17:17">
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="17:17">
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="17:17">
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="17:17">
+      <c r="Q17"/>
+    </row>
+    <row r="18" spans="17:17">
+      <c r="Q18"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/BattlefieldMapConfig.xlsx
+++ b/Excel/BattlefieldMapConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="6432" windowHeight="2316"/>
   </bookViews>
   <sheets>
     <sheet name="BattlefieldMap" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>Pvp地图</t>
+  </si>
+  <si>
+    <t>3,1,1,1,1,0,4</t>
+  </si>
+  <si>
+    <t>2,1,1,1,1,0,2</t>
   </si>
   <si>
     <t>Team地图</t>
@@ -138,10 +144,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -165,6 +171,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -172,9 +215,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,85 +237,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,31 +268,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,49 +337,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,133 +517,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +528,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -540,17 +585,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,32 +612,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,160 +628,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1132,18 +1138,16 @@
   <dimension ref="C2:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1296296296296" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="42.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="15" width="9.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.66666666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.6666666666667" style="1" customWidth="1"/>
+    <col min="5" max="15" width="11.5555555555556" style="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1273,7 +1277,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="3:17">
+    <row r="6" s="1" customFormat="1" ht="26.4" spans="3:17">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -1315,7 +1319,7 @@
       </c>
       <c r="Q6"/>
     </row>
-    <row r="7" spans="3:17">
+    <row r="7" ht="14.4" spans="3:17">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1332,16 +1336,16 @@
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>32</v>
@@ -1357,76 +1361,76 @@
       </c>
       <c r="Q7"/>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" ht="14.4" spans="3:17">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="Q8"/>
     </row>
-    <row r="9" spans="17:17">
+    <row r="9" ht="14.4" spans="17:17">
       <c r="Q9"/>
     </row>
-    <row r="10" spans="17:17">
+    <row r="10" ht="14.4" spans="17:17">
       <c r="Q10"/>
     </row>
-    <row r="11" spans="17:17">
+    <row r="11" ht="14.4" spans="17:17">
       <c r="Q11"/>
     </row>
-    <row r="12" spans="17:17">
+    <row r="12" ht="14.4" spans="17:17">
       <c r="Q12"/>
     </row>
-    <row r="13" spans="17:17">
+    <row r="13" ht="14.4" spans="17:17">
       <c r="Q13"/>
     </row>
-    <row r="14" spans="17:17">
+    <row r="14" ht="14.4" spans="17:17">
       <c r="Q14"/>
     </row>
-    <row r="15" spans="17:17">
+    <row r="15" ht="14.4" spans="17:17">
       <c r="Q15"/>
     </row>
-    <row r="16" spans="17:17">
+    <row r="16" ht="14.4" spans="17:17">
       <c r="Q16"/>
     </row>
-    <row r="17" spans="17:17">
+    <row r="17" ht="14.4" spans="17:17">
       <c r="Q17"/>
     </row>
-    <row r="18" spans="17:17">
+    <row r="18" ht="14.4" spans="17:17">
       <c r="Q18"/>
     </row>
   </sheetData>
